--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PycharmProjects\TrialAndTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PycharmProjects\fakeNewsDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AFF3D-81E9-4728-AF90-12C97567F9F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A80DD-407A-4605-BC0D-B318C57F1A81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="708" windowWidth="12384" windowHeight="8436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -12404,12 +12404,13 @@
   <dimension ref="A1:H1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="8" max="8" width="43.5546875" customWidth="1"/>
